--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1632819.270059493</v>
+        <v>1630567.190348284</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283219</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>60.48910589095234</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>92.47445699814351</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>147.4291364622105</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4746605491558</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>89.86676627008548</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>9.09919344118153</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>95.99346151338463</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>95.0409351401306</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>54.2600367291013</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>95.81514163764196</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881248</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>99.76189317295223</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>38.2187527515822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310799</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238239</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>115.7063133373714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>164.8280908524506</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>134.9529137347759</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.72099019930657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>120.0312718434585</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>57.0235632167813</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>163.3542162903876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187834</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.13676080754342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788182576</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.15319674221002</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080136</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998631</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1688.545771187222</v>
       </c>
       <c r="T4" t="n">
-        <v>1530.147236421175</v>
+        <v>1466.779155756748</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>1466.779155756748</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>1212.094667550861</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2014.778044008243</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C5" t="n">
-        <v>1645.815527067831</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.549828461081</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E5" t="n">
-        <v>901.7615758628365</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F5" t="n">
-        <v>490.7756710732289</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>75.70322091822538</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218343</v>
@@ -4565,25 +4565,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4753,22 +4753,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>174.5072549845451</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>163.4752088699457</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.314208550276</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.314208550276</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.251321206705</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +4999,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,34 +5103,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273892</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803935</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516139</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579362</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.868625753638</v>
+        <v>983.3556038098285</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257311</v>
+        <v>814.4194208819216</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133953</v>
+        <v>664.3027814695859</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310022</v>
+        <v>516.3896878871927</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892824</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.3616186032</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947398</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741511</v>
+        <v>1903.203368718576</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681616</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783598</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640068</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637303</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444888</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684175</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015257</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935558</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656489</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>666.6476097656489</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>518.7345161832558</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>371.8445686853454</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,61 +5978,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6248,7 +6248,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>576.8388927589092</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>979.2799367326791</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.4873575891489</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,34 +6762,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.868625753638</v>
+        <v>580.899304487672</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257311</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310022</v>
+        <v>411.9631215597651</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258109</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602307</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.74706939642</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614419</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179117</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7418,19 +7418,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1478848544708</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4360536966689</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3.836930773104541e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>67.48492792567561</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.9188905722458</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1584408891609</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>110.0033420516657</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.88156453658655</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>30.57122455749294</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.11098998263073</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>98.55338150863629</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>136.2749052347487</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.1126395763555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899450.1949942405</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899450.1949942406</v>
+        <v>899450.194994241</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899450.1949942406</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899450.1949942405</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,7 +26433,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-994575.490830371</v>
+        <v>-994575.4908303714</v>
       </c>
       <c r="C6" t="n">
         <v>334169.2548972215</v>
       </c>
       <c r="D6" t="n">
-        <v>334169.2548972217</v>
+        <v>334169.2548972216</v>
       </c>
       <c r="E6" t="n">
-        <v>85723.37798542422</v>
+        <v>85688.64005998761</v>
       </c>
       <c r="F6" t="n">
-        <v>411135.8397927787</v>
+        <v>411101.101867343</v>
       </c>
       <c r="G6" t="n">
-        <v>411135.8397927787</v>
+        <v>411101.1018673427</v>
       </c>
       <c r="H6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.1018673431</v>
       </c>
       <c r="I6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.1018673428</v>
       </c>
       <c r="J6" t="n">
-        <v>193604.6373955009</v>
+        <v>193569.8994700655</v>
       </c>
       <c r="K6" t="n">
-        <v>411135.8397927786</v>
+        <v>411101.1018673428</v>
       </c>
       <c r="L6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.101867343</v>
       </c>
       <c r="M6" t="n">
-        <v>326080.811857267</v>
+        <v>326046.0739318308</v>
       </c>
       <c r="N6" t="n">
-        <v>411135.8397927787</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="O6" t="n">
-        <v>411135.8397927784</v>
+        <v>411101.101867343</v>
       </c>
       <c r="P6" t="n">
-        <v>411135.8397927785</v>
+        <v>411101.1018673429</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,16 +26808,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,11 +26975,11 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>346.3869398507591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>111.4435131414766</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.33988886923137</v>
       </c>
       <c r="T4" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>317.009279471626</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>285.5085709461389</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,13 +27825,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>147.8785773062519</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>198.6143028739358</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>108.8770349994895</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>94.35543628911105</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>190.7078566989491</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.041947931807411e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558027</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179115</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704916</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319857</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,10 +34442,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113583</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394754</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561613</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875412</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060485</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
